--- a/excel/10.xlsx
+++ b/excel/10.xlsx
@@ -879,7 +879,11 @@
           <t>通风安全学孙路路 (6-10周) 安全工程2019-1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
@@ -936,7 +940,11 @@
           <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
@@ -1025,7 +1033,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1096,7 +1104,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1114,7 +1122,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1165,7 +1173,11 @@
           <t>结构力学杜烨 (1-12周) 交通工程2019-1-2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>控制工程基础王向华 (9-16双周) 采矿工程（智能开采方向）2019-1-2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>矿山压力与岩层控制文志杰 (6-10周) 安全工程2019-1-4</t>
@@ -1200,7 +1212,11 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1269,7 +1285,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1299,7 +1315,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1373,7 +1389,11 @@
           <t>仓储管理与库存控制李美燕 (10-17周) 工业工程2019-1-2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>工程测试技术基础隋秀华 (10周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -1531,7 +1551,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1628,7 +1648,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1910,7 +1930,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1948,7 +1968,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
@@ -2096,7 +2116,7 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2165,7 +2185,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2947,7 +2967,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2973,7 +2993,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3410,11 +3430,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
@@ -3445,7 +3461,11 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -3681,7 +3701,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3770,7 +3790,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3833,7 +3853,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -3905,7 +3925,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3935,7 +3955,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3957,7 +3977,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4043,11 +4063,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4116,7 +4132,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4146,7 +4162,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4184,7 +4200,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -4715,11 +4731,7 @@
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
           <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
@@ -5664,7 +5676,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5672,11 +5684,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6345,7 +6353,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6361,7 +6369,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6375,7 +6383,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6391,12 +6399,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6417,7 +6425,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6635,7 +6643,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -7519,11 +7527,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -8432,7 +8436,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -8454,14 +8458,10 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
@@ -8483,11 +8483,7 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -8525,7 +8521,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -8553,13 +8553,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>

--- a/excel/10.xlsx
+++ b/excel/10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK89"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,8 +662,10 @@
       <c r="J2" t="n">
         <v>506</v>
       </c>
-      <c r="K2" t="n">
-        <v>708</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0708</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -803,7 +805,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -812,7 +814,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -821,7 +823,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -830,7 +832,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -906,7 +908,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
+          <t>绿色开采技术郭忠平 (7-10周) 采矿工程2018-1-3</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -914,11 +916,7 @@
           <t>特种废水处理技术高洪阁 (7-15周) 环境工程2018-1-3</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
@@ -952,11 +950,7 @@
           <t>工程概论周红敏 (10-17周) 工程力学2020-1-2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -980,12 +974,24 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>专业课程设计(市场营销与人力资源管理模块)高军红 (10周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>专业课程设计(市场营销与人力资源管理模块)高军红 (10周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>工商管理认识实习高军红,姜秀娟 (10周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -1027,7 +1033,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
@@ -1038,12 +1044,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1091,7 +1097,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1120,18 +1126,14 @@
           <t>材料物理性能李桂杰 (10-18周) 金属材料工程2019-1-2</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
@@ -1277,7 +1279,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1288,7 +1290,11 @@
           <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>高分子化学韩永芹 (10周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
@@ -1318,7 +1324,11 @@
           <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>国际贸易侯贵生 (10周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
@@ -1329,12 +1339,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1350,12 +1360,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1415,7 +1425,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>弹性力学基础陈军涛 (9-12周) 采矿工程2019-3-4</t>
+          <t>弹性力学基础刘学生 (9-12周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1481,98 +1491,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>J14-121室</t>
+          <t>J14-119室</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>遥感原理与应用闫金凤 (9-16周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>测量数据库开发技术田茂义 (10-13周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>MATLAB与应用张蕾 (3-12周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>测绘工程专业导论徐泮林,栾元重 (4-11周) 测绘工程2021-3-4</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>大地测量学基础韩晓冬 (1-14周) 测绘工程2019-1</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>自然地理学张红日 (4-13周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>近景摄影测量解斐斐,刘健辰 (4-11周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>自然地理学张红日 (4-13周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>律师实务（含法律文书）孙明泽 (10周) 法学(辅修)2018</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>律师实务（含法律文书）孙明泽 (10周) 法学(辅修)2018</t>
+        </is>
+      </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
@@ -1586,84 +1544,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>J14-123室</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-121室</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>遥感原理与应用闫金凤 (9-16周) 地理信息科学2020-1-2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>测量数据库开发技术田茂义 (10-13周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
+          <t>MATLAB与应用张蕾 (3-12周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>遥感地质学刘一霖 (4-10周) 地质工程2018-1-3</t>
+          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>政治经济学赵友宝 (8-15周) 金融学2021-1-2班,国际经济与贸易2021-1-2</t>
+          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
+          <t>测绘工程专业导论徐泮林,栾元重 (4-11周) 测绘工程2021-3-4</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>大地测量学基础韩晓冬 (1-14周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>水利工程概论张升堂 (2-10周) 水文与水资源工程2019-1-2</t>
+          <t>自然地理学张红日 (4-13周) 遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>普通化学（B）李春露 (4-11周) 水文与水资源工程2021-1-2</t>
+          <t>近景摄影测量解斐斐,刘健辰 (4-11周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>政治经济学赵友宝 (8-19周) 金融学2021-1-2班,国际经济与贸易2021-1-2</t>
+          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>自然地理学张红日 (4-13周) 遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>遥感地质学刘一霖 (4-10周) 地质工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>测量学田茂义 (9-14周) 水文与水资源工程2021-1-2</t>
-        </is>
-      </c>
+          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
@@ -1683,90 +1649,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>J14-203室</t>
+          <t>J14-123室</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>环境规划与管理胡术刚 (7-15周) 环境工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
-        </is>
-      </c>
+          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
+          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>海洋生物学乔延路 (7-15周) 环境工程（海洋环境方向）2018</t>
+          <t>遥感地质学刘一霖 (4-10周) 地质工程2018-1-3</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>热工基础李见波 (8-15周) 车辆工程2019-1-2</t>
+          <t>政治经济学赵友宝 (8-15周) 金融学2021-1-2班,国际经济与贸易2021-1-2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>功能高分子材料王庆昭 (4-11周) 应用化学2018-1-3</t>
+          <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>轨道交通运营张嘉敏 (7-14周) 交通运输2019-1-2</t>
-        </is>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
+          <t>水利工程概论张升堂 (2-10周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
+          <t>普通化学（B）李春露 (4-11周) 水文与水资源工程2021-1-2</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>海洋生物学乔延路 (7-15周) 环境工程（海洋环境方向）2018</t>
+          <t>政治经济学赵友宝 (8-19周) 金融学2021-1-2班,国际经济与贸易2021-1-2</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>工程力学专业导论谭涛等 (4-11周) 工程力学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>功能高分子材料王庆昭 (4-11周) 应用化学2018-1-3</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>塑性力学王同旭 (9-13周) 工程力学2019-1-2</t>
+          <t>遥感地质学刘一霖 (4-10周) 地质工程2018-1-3</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>地理信息系统及应用张嘉敏 (7-14周) 交通运输2019-1-2</t>
+          <t>测量学田茂义 (9-14周) 水文与水资源工程2021-1-2</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
@@ -1788,85 +1738,101 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>J14-205室</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>J14-203室</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>环境规划与管理胡术刚 (7-15周) 环境工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
+          <t>海洋生物学乔延路 (7-15周) 环境工程（海洋环境方向）2018</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>热工基础李见波 (8-15周) 车辆工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>功能高分子材料王庆昭 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
+          <t>轨道交通运营张嘉敏 (7-14周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>普通化学贺正龙 (8-19周) 安全工程2020-5</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>会计学专业导论*张咏梅 (4-11周) 会计学2021-1-2</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
+          <t>海洋生物学乔延路 (7-15周) 环境工程（海洋环境方向）2018</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>工程力学专业导论谭涛等 (4-11周) 工程力学2021-1-2</t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>功能高分子材料王庆昭 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
+          <t>塑性力学王同旭 (9-13周) 工程力学2019-1-2</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
+          <t>地理信息系统及应用张嘉敏 (7-14周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
@@ -1877,109 +1843,85 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>J14-207室</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 矿物加工工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
+          <t>J14-205室</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>岩体力学吕显州 (3-13周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 高分子材料与工程2021-1-3</t>
-        </is>
-      </c>
+          <t>会计学专业导论*张咏梅 (4-11周) 会计学2021-1-2</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>普通地质学孟凡雪 (4-15周) 资源勘查工程2021-3</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
+          <t>物流专业英语曾丽君 (10-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>财务管理（B）马红 (10-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>国际商务谈判姜秀娟 (4-11周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>应用统计学马媛 (8-18周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
@@ -1990,56 +1932,100 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>J14-209室</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>J14-207室</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>应用化学专业导论葛圣松 (4-11周) 应用化学2021-1-2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>无机与分析化学（2-1）朱林晖 (4-11周) 化学工程与工艺2021-1-3</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>化工专业英语赵国明 (6-14周) 化学工程与工艺2018-1-3</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>岩体力学吕显州 (3-13周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+          <t>高等数学（A）（2-1）刘洪霞 (4-19周) 测绘工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 高分子材料与工程2021-1-3</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>普通地质学孟凡雪 (4-15周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+          <t>高等数学（A）（2-1）孟波 (4-19周) 地质工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
@@ -2059,43 +2045,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J14-211室</t>
+          <t>J14-209室</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
+          <t>应用化学专业导论葛圣松 (4-11周) 应用化学2021-1-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>人工智能包永堂 (9-16周) 采矿工程（智能开采方向）2019-1-2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>工程测试技术基础田和强 (2-10周) 机械设计制造及其自动化2019-4-5</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
+          <t>无机与分析化学（2-1）朱林晖 (4-11周) 化学工程与工艺2021-1-3</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
+          <t>化工专业英语赵国明 (6-14周) 化学工程与工艺2018-1-3</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2103,25 +2081,17 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>机械振动与噪声控制牟鸣飞 (7-15周) 能源与动力工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
-        </is>
-      </c>
+          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
-        </is>
-      </c>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr">
         <is>
-          <t>工程测试技术基础田和强 (2-10周) 机械设计制造及其自动化2019-4-5</t>
+          <t>绿色开采技术郭忠平 (6-10周) 采矿工程2018-1-3</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
@@ -2144,17 +2114,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>J14-213室</t>
+          <t>J14-211室</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>无机与分析化学（2-1）朱林晖 (4-11周) 化学工程与工艺2021-1-3</t>
+          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -2162,70 +2132,62 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>锅炉原理李志敏 (4-15周) 能源与动力工程2019-1-3</t>
+          <t>人工智能包永堂 (9-16周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>机械工程控制基础吕馥言 (9-15周) 机械电子工程2019-4-5</t>
+          <t>工程测试技术基础田和强 (2-10周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>沉积环境与沉积相贾海波 (10周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>机械振动与噪声控制牟鸣飞 (7-15周) 能源与动力工程2019-1-3</t>
+          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
-        </is>
-      </c>
+          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
+          <t>机械振动与噪声控制牟鸣飞 (7-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>基础工业工程刘兆霞 (1-10周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>机械设计（A）叶铁丽 (7-15周) 机械电子工程2019-1-3</t>
-        </is>
-      </c>
+          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>锅炉原理李志敏 (4-15周) 能源与动力工程2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>机械设计（A）叶铁丽 (7-15周) 机械电子工程2019-1-3</t>
-        </is>
-      </c>
+          <t>工程测试技术基础田和强 (2-10周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
@@ -2245,80 +2207,88 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>J14-219室</t>
+          <t>J14-213室</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>复合材料吴杰 (10-16周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
+          <t>无机与分析化学（2-1）朱林晖 (4-11周) 化学工程与工艺2021-1-3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>电路陈旭 (1-10周) 电气工程及其自动化2020-3-4</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
+          <t>锅炉原理李志敏 (4-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>工程测量林淼 (9-14周) 地质工程2021-1-3</t>
+          <t>机械工程控制基础吕馥言 (9-15周) 机械电子工程2019-4-5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>机械振动与噪声控制牟鸣飞 (7-15周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>绿色开采技术汪锋 (6-10周) 采矿工程2018-4-6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>复合材料吴杰 (9-16周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
-        </is>
-      </c>
+          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>工业工程专业导论李兴华等 (4-11周) 工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>机械设计（A）李学艺 (8-16周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>基础工业工程刘兆霞 (1-10周) 工业工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>钻井工程宋维强 (7-11周) 采矿工程2019-1-4</t>
+          <t>机械设计（A）叶铁丽 (7-15周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+          <t>锅炉原理李志敏 (4-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>岩体力学吕显州 (3-11周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr"/>
+          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>机械设计（A）叶铁丽 (7-15周) 机械电子工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
@@ -2338,78 +2308,82 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>J14-221室</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+          <t>J14-219室</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>复合材料吴杰 (10-16周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）王秀芳 (7-18周) 环境工程2021-1-4</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>海洋遥感朱金山 (2-13周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>电路陈旭 (1-10周) 电气工程及其自动化2020-3-4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>地球科学概论明艳芳 (4-11周) 地理信息科学2021-1-3</t>
+          <t>工程测量林淼 (9-14周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（2-1）丁长青 (8-11周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>海洋遥感朱金山 (2-13周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+          <t>绿色开采技术汪锋 (6-10周) 采矿工程2018-4-6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>复合材料吴杰 (9-16周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>地理信息科学导论李云岭 (8-15周) 地理信息科学2021-1-2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>工业工程专业导论李兴华等 (4-11周) 工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MATLAB与应用张蕾 (3-12周) 地理信息科学2019-1-3</t>
+          <t>钻井工程宋维强 (7-11周) 采矿工程2019-1-4</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（2-1）丁长青 (8-19周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）卫永琴 (10-18周) 金属材料工程2019-1-3</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>岩体力学吕显州 (3-11周) 地质工程2019-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
@@ -2427,96 +2401,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J14-223室</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>岩石物理基础张金伟 (7-14周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-221室</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>地球物理勘探翟培合 (4-13周) 资源勘查工程2018-1-3</t>
+          <t>制图基础（A）戚美 (9-15周) 能源与动力工程2021-1-3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言）王秀芳 (7-18周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
+          <t>海洋遥感朱金山 (2-13周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>矿井地质学李守春 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>地球科学概论明艳芳 (4-11周) 地理信息科学2021-1-3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
+          <t>计算机程序设计基础（2-1）丁长青 (8-11周) 遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>地球物理勘探翟培合 (4-13周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
+          <t>海洋遥感朱金山 (2-13周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>矿井地质学李守春 (4-12周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>古生物地史学王平丽,张春荣 (7-14周) 地质工程2020-2-3</t>
-        </is>
-      </c>
+          <t>地理信息科学导论李云岭 (8-15周) 地理信息科学2021-1-2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>MATLAB与应用张蕾 (3-12周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（2-1）丁长青 (8-19周) 遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
-          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>专业英语韩文学,孟凡雪 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
+          <t>地理信息系统原理与应用王瑞富 (2-10周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
+          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
@@ -2536,98 +2494,98 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J14-302室</t>
+          <t>J14-223室</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>采掘机械与液压传动张坤 (4-13周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>岩石物理基础张金伟 (7-14周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
+          <t>地球物理勘探翟培合 (4-13周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>古生物地史学王平丽,张春荣 (7-14周) 地质工程2020-2-3</t>
+          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
+          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>矿井地质学李守春 (4-12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>物理化学（A）魏娜 (2-12周) 金属材料工程2020-1-2</t>
+          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
-        </is>
-      </c>
+          <t>地球物理勘探翟培合 (4-13周) 资源勘查工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
+          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>物理化学（A）魏娜 (2-12周) 金属材料工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>普通地质学宋召军,许庆林 (4-15周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+          <t>矿井地质学李守春 (4-12周) 资源勘查工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>计算机程序设计（C语言）张涛 (7-10,12-14周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
+          <t>古生物地史学王平丽,张春荣 (7-14周) 地质工程2020-2-3</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
+          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>形势与政策（4-1）张洋 (9-12周) 化学工程与工艺2021-1-3</t>
+          <t>专业英语韩文学,孟凡雪 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>地热资源勘查与评价陈涛 (5-10周) 水文与水资源工程2018-1-2</t>
+        </is>
+      </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
@@ -2645,84 +2603,92 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J14-303室</t>
+          <t>J14-302室</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
+          <t>采掘机械与液压传动张坤 (4-13周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>地下水动力学王敏 (9-12周) 水文与水资源工程2019-1-2</t>
+          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>交通安全贺敏 (3-10周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>古生物地史学王平丽,张春荣 (7-14周) 地质工程2020-2-3</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>古生物地史学张春荣,周长付 (9-14周) 水文与水资源工程2020-2</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
+          <t>物理化学（A）魏娜 (2-12周) 金属材料工程2020-1-2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
+          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>环境规划与管理胡术刚 (7-15周) 环境工程2018-1-2</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）王芳 (4-19周) 遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
+          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>能源材料刘瑞 (9-12周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
+          <t>物理化学（A）魏娜 (2-12周) 金属材料工程2020-1-2</t>
         </is>
       </c>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>普通地质学宋召军,许庆林 (4-15周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>特种废水处理技术高洪阁 (7-15周) 环境工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr"/>
+          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>形势与政策（4-1）张洋 (9-12周) 化学工程与工艺2021-1-3</t>
+        </is>
+      </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -2742,85 +2708,81 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J14-304室</t>
+          <t>J14-303室</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>热加工工艺许丹 (5-12周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
+          <t>地下水动力学王敏 (9-12周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+          <t>交通安全贺敏 (3-10周) 安全工程2019-1-4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
+          <t>古生物地史学张春荣,周长付 (9-14周) 水文与水资源工程2020-2</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>几何量公差与检测孙静 (8-15周) 过程装备与控制工程2019-1-2</t>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>环境规划与管理胡术刚 (7-15周) 环境工程2018-1-2</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
+          <t>能源材料刘瑞 (9-12周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
         </is>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>几何量公差与检测孙静 (8-15周) 过程装备与控制工程2019-1-2</t>
+          <t>特种废水处理技术高洪阁 (7-15周) 环境工程2018-1-3</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2843,26 +2805,34 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J14-305室</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>J14-304室</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>微观经济学(A)陈爱萍 (8-19周) 国际经济与贸易2021-2</t>
+          <t>热加工工艺许丹 (5-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2870,72 +2840,60 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>金融学专业导论*孟科学 (4-11周) 金融学2021-1-2</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+          <t>几何量公差与检测孙静 (8-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
+          <t>普通化学陈金射 (8-19周) 安全工程2020-1-2</t>
         </is>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>几何量公差与检测孙静 (8-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
+        </is>
+      </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>管理学(A)方宏 (4-15周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>管理学(A)方宏 (4-15周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>管理经济学王家坤 (4-11周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>管理经济学王家坤 (4-11周) 工商管理辅修 2020版</t>
-        </is>
-      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
-        </is>
-      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2944,30 +2902,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J14-306室</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-305室</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>微观经济学(A)陈爱萍 (8-19周) 国际经济与贸易2021-2</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2975,52 +2929,72 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>金融学专业导论*孟科学 (4-11周) 金融学2021-1-2</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
+          <t>商务英语口语(全英文课程)*于晓燕 (10-17周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>管理学(A)方宏 (4-15周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>管理学(A)方宏 (4-15周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>管理经济学王家坤 (4-11周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>管理经济学王家坤 (4-11周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3029,72 +3003,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J14-307室</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>J14-306室</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
+          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
+          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>材料力学性能岳丽杰 (7-10周) 金属材料工程2019-4-5</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>数据库技术及物流软件开发刘志海 (1-8,10周) 物流工程2019-1-2</t>
-        </is>
-      </c>
+          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
+          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>材料力学性能岳丽杰 (7-10周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）武波 (4-19周) 机械电子工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -3114,80 +3096,76 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J14-308室</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
-        </is>
-      </c>
+          <t>J14-307室</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+          <t>弹性力学基础刘学生 (10-13周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+          <t>材料力学性能岳丽杰 (7-10周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>传感器与检测技术谷明霞,李金良 (2-10周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈广庆 (7-15周) 过程装备与控制工程2019-1-2</t>
+          <t>数据库技术及物流软件开发刘志海 (1-8,10周) 物流工程2019-1-2</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
+          <t>材料力学性能岳丽杰 (7-10周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>传感器与检测技术谷明霞,李金良 (2-10周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -3207,76 +3185,84 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J14-309室</t>
+          <t>J14-308室</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>有机化学（2-1）王翠珍 (10-19周) 应用化学2020-1-3</t>
+          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>无机与分析化学(2-1)刘青云 (4-11周) 矿物加工工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>化学反应工程赵萍萍 (3-14周) 化学工程与工艺2019-3</t>
-        </is>
-      </c>
+          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>无机与分析化学(2-1)刘青云 (4-11周) 矿物加工工程2021-1-2</t>
+          <t>传感器与检测技术谷明霞,李金良 (2-10周) 机械电子工程2019-1-2</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>无机与分析化学(2-1)李春露 (4-11周) 矿物加工工程2021-3</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>机械工程控制基础陈广庆 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>化工工艺学涂宝峰 (5-13周) 化学工程与工艺2018-3</t>
+          <t>工程地质学基础张伟杰 (10周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>无机与分析化学唐尧基 (4-13周) 生物工程2021-1-2</t>
+          <t>传感器与检测技术谷明霞,李金良 (2-10周) 机械电子工程2019-1-2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>无机与分析化学(2-1)李春露 (4-11周) 矿物加工工程2021-3</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>结构化学黄永清 (4-15周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
@@ -3296,90 +3282,74 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J14-310室</t>
+          <t>J14-309室</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
+          <t>有机化学（2-1）王翠珍 (10-19周) 应用化学2020-1-3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
+          <t>无机与分析化学(2-1)刘青云 (4-11周) 矿物加工工程2021-1-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
+          <t>化学反应工程赵萍萍 (3-14周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
+          <t>无机与分析化学(2-1)刘青云 (4-11周) 矿物加工工程2021-1-2</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>制图基础（A）顾东明 (4-15周) 机械设计制造及其自动化2021-1-2</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
-        </is>
-      </c>
+          <t>无机与分析化学(2-1)李春露 (4-11周) 矿物加工工程2021-3</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>普通化学（B）马林政 (4-11周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
+          <t>化工工艺学涂宝峰 (5-13周) 化学工程与工艺2018-3</t>
         </is>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
+          <t>无机与分析化学唐尧基 (4-13周) 生物工程2021-1-2</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>无机与分析化学(2-1)李春露 (4-11周) 矿物加工工程2021-3</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
+          <t>结构化学黄永清 (4-15周) 应用化学2019-1-3</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -3401,72 +3371,84 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>J14-311室</t>
+          <t>J14-310室</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>工业锅炉王建伟 (7-15周) 能源与动力工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
+          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
+          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
+          <t>制图基础（A）顾东明 (4-15周) 机械设计制造及其自动化2021-1-2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
+          <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>计算机（工程）制图王其芳 (10-16周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+          <t>普通化学（B）马林政 (4-11周) 地质工程2021-3</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
+          <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr"/>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -3486,37 +3468,69 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J14-312室</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+          <t>J14-311室</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工业锅炉王建伟 (7-15周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-3</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
+          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-3</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>计算机（工程）制图王其芳 (10-16周) 地质工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>电机拖动与控制石浩 (10-15周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
@@ -3527,11 +3541,7 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
@@ -3543,80 +3553,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>J14-313室</t>
+          <t>J14-312室</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
+          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+          <t>软件工程王书伟 (10-18周) 电子商务2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -3624,7 +3594,11 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
+        </is>
+      </c>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
@@ -3636,94 +3610,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>J14-314室</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
+          <t>J14-313室</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>计算机绘图谢道雷 (4-13周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>军事理论张明光 (4-19周) 安全工程2021-3-5</t>
-        </is>
-      </c>
+          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
+          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
+          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
+          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+          <t>热电联产孔祥强 (9-17周) 能源与动力工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
+          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
+          <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
+          <t>热工控制系统陈毕胜 (9-17周) 能源与动力工程2018-1-3</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr"/>
@@ -3745,70 +3699,94 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>J14-316室</t>
+          <t>J14-314室</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>宏观经济学(A)孟文强 (8-12周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>计算机绘图谢道雷 (4-13周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>军事理论张明光 (4-19周) 安全工程2021-3-5</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (10-13周) 工商管理2019-2</t>
+          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>宏观经济学(A)孟文强 (8-12周) 金融学2020-1-2</t>
+          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
+          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>第四纪地质学刘金庆,宋召军 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>设施布置及物流系统规划崔雪莲 (1-12周) 物流管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
+          <t>高等数学（A）（2-1）郑艳琳 (4-19周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
+          <t>工程地质学苗佳丽 (9-19周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr"/>
@@ -3830,72 +3808,72 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J14-318室</t>
+          <t>J14-316室</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
+          <t>宏观经济学(A)孟文强 (8-12周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>运筹学（B）庄晓雯 (10-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>普通化学（B）李春露 (4-11周) 水文与水资源工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
+          <t>宏观经济学(A)孟文强 (8-12周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-2）穆雪梅 (1-6,9-14周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>测量数据库开发技术田茂义 (5-13周) 测绘工程2019-1-3</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>设施布置及物流系统规划崔雪莲 (1-12周) 物流管理2018-1-2</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>财政与金融(B)聂国栋 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -3915,97 +3893,73 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J14-319室</t>
+          <t>J14-318室</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>矿山压力监测与预报杨永杰 (9-13周) 采矿工程（智能开采）2018-1-3班,采矿工程2018-1-6</t>
+          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>社会主义发展史姜瑞学 (5-12周) 矿物加工工程2021-1-3班,视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>形势与政策（4-3）魏然 (9-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>普通化学（B）李春露 (4-11周) 水文与水资源工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>社会主义发展史姜瑞学 (5-12周) 矿物加工工程2021-1-3班,视觉传达设计2021-1-2</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）穆雪梅 (1-6,9-14周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 金属材料工程2021-1-4</t>
-        </is>
-      </c>
+          <t>测量数据库开发技术田茂义 (5-13周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
@@ -4024,81 +3978,97 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>J14-320室</t>
+          <t>J14-319室</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>矿山压力监测与预报杨永杰 (9-13周) 采矿工程（智能开采）2018-1-3班,采矿工程2018-1-6</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>社会主义发展史姜瑞学 (5-12周) 矿物加工工程2021-1-3班,视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>形势与政策（4-3）魏然 (9-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>普通地质学孟凡雪 (4-15周) 资源勘查工程2021-3</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>社会主义发展史姜瑞学 (5-12周) 矿物加工工程2021-1-3班,视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张志明 (1-12周) 工业工程2020-1-2</t>
+          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 金属材料工程2021-1-4</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>大地测量学基础王进 (4-12周) 遥感科学与技术2019-2</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>形势与政策（4-1）苏同营,张洋 (9-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
@@ -4117,90 +4087,78 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>J14-321室</t>
+          <t>J14-320室</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (2-13周) 生物工程2020-1-2班,化学工程与工艺2020-1-2</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>普通地质学孟凡雪 (4-15周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>大学物理（B）（2-2）张志明 (1-12周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (2-13周) 生物工程2020-1-2班,化学工程与工艺2020-1-2</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 金属材料工程2021-1-4</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>形势与政策（4-3）魏然 (9-12周) 机械设计制造及其自动化2020-1-4</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>大地测量学基础王进 (4-12周) 遥感科学与技术2019-2</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -4222,90 +4180,94 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J14-323室</t>
+          <t>J14-321室</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (9-13周) 地质工程2019-1-2</t>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>岩土工程勘察徐东晶 (5-14周) 地质工程2018-1</t>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>数字信号分析与处理丁仁伟 (2-11周) 勘查技术与工程2019-1-2</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (2-13周) 生物工程2020-1-2班,化学工程与工艺2020-1-2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>岩土工程勘察徐东晶 (5-14周) 地质工程2018-1</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>工程概论孙凌志 (10-11周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (2-13周) 生物工程2020-1-2班,化学工程与工艺2020-1-2</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>数字信号分析与处理丁仁伟 (2-11周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
+          <t>中国近现代史纲要叶小青 (4-15周) 金属材料工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>形势与政策（4-3）魏然 (9-12周) 机械设计制造及其自动化2020-1-4</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr"/>
+          <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>工程概论孙凌志 (10-17周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
@@ -4323,86 +4285,90 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J14-324室</t>
+          <t>J14-323室</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>岩体力学张伟杰 (9-13周) 地质工程2019-1-2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>几何量公差与检测周海萍 (8-16周) 材料成型及控制工程2019-1-2</t>
+          <t>岩土工程勘察徐东晶 (5-14周) 地质工程2018-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>几何量公差与检测韩善灵 (3-10周) 机械电子工程2019-1-3</t>
+          <t>数字信号分析与处理丁仁伟 (2-11周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>地球物理反演理论与方法崔岩 (4-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>机械电子工程学科前沿江守波,杨扬,张鑫,朱绪力 (7-10周) 机械电子工程2018-1-5</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>岩土工程勘察徐东晶 (5-14周) 地质工程2018-1</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>工程概论孙凌志 (10-11周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>数字信号分析与处理丁仁伟 (2-11周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>机械电子工程学科前沿江守波,杨扬,张鑫,朱绪力 (7-10周) 机械电子工程2018-1-5</t>
-        </is>
-      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈广庆 (7-15周) 过程装备与控制工程2019-1-2</t>
+          <t>非常规天然气地质学张晓阳 (9-17周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>工程概论孙凌志 (10-17周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
@@ -4420,88 +4386,80 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J14-326室</t>
+          <t>J14-324室</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>过程装备焊接结构张玉龙 (3-10周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>几何量公差与检测周海萍 (8-16周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>过程装备制造与检测胡效东 (3-11周) 过程装备与控制工程2018-1-3</t>
+          <t>几何量公差与检测韩善灵 (3-10周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>工程流体力学聂志峰 (7-15周) 过程装备与控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>计算方法江守波 (9-16周) 机械设计制造及其自动化2019-1-3</t>
+          <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>热加工工艺许丹 (5-12周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>金属构件失效分析王凤芹 (9-16周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>过程装备腐蚀与防护鲍怀谦 (3-11周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+          <t>机械电子工程学科前沿江守波,杨扬,张鑫,朱绪力 (7-10周) 机械电子工程2018-1-5</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>过程装备焊接结构张玉龙 (3-10周) 过程装备与控制工程2018-1-3</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>工程流体力学聂志峰 (7-15周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>几何量公差与检测周海萍 (8-16周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
+          <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械电子工程学科前沿江守波,杨扬,张鑫,朱绪力 (7-10周) 机械电子工程2018-1-5</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>金属构件失效分析王凤芹 (9-16周) 材料成型及控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>微机原理与应用丁鸿昌 (7-15周) 能源与动力工程2019-1-3</t>
-        </is>
-      </c>
+          <t>机械工程控制基础陈广庆 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -4521,52 +4479,88 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J14-330室</t>
+          <t>J14-326室</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+          <t>过程装备焊接结构张玉龙 (3-10周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
+          <t>过程装备制造与检测胡效东 (3-11周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>工程流体力学聂志峰 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>计算方法江守波 (9-16周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>热加工工艺许丹 (5-12周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>金属构件失效分析王凤芹 (9-16周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
+          <t>过程装备腐蚀与防护鲍怀谦 (3-11周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>过程装备焊接结构张玉龙 (3-10周) 过程装备与控制工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>工程流体力学聂志峰 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>几何量公差与检测周海萍 (8-16周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>水文地球化学任加国 (10-19周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>金属构件失效分析王凤芹 (9-16周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>微机原理与应用丁鸿昌 (7-15周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -4586,79 +4580,51 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J14-334室</t>
+          <t>J14-330室</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>测绘工程专业导论于胜文 (4-11周) 测绘工程2021-5</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>C++语言程序设计刘如飞 (4-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>大地测量学基础王进 (4-12周) 遥感科学与技术2019-2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用张蕾 (8-10周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>高光谱遥感张邻晶 (10-12周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>空间数据库闫金凤 (3-12周) 地理信息科学2019-1-2</t>
-        </is>
-      </c>
+          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
+          <t>国际经贸报刊文献选读曲越 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用张蕾 (8-19周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>高光谱遥感张邻晶 (10-17周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>遥感原理与应用闫金凤 (9-16周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>工程概论李英 (10-12周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>空间数据库闫金凤 (3-12周) 地理信息科学2019-1-2</t>
-        </is>
-      </c>
+          <t>水文地球化学任加国 (10-19周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
@@ -4679,22 +4645,30 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J14-336室</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-334室</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>测绘工程专业导论于胜文 (4-11周) 测绘工程2021-5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C++语言程序设计刘如飞 (4-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>大地测量学基础王进 (4-12周) 遥感科学与技术2019-2</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>采煤概论赵同彬 (7-11周) 工程力学2018-1-3</t>
+          <t>地理信息系统原理与应用张蕾 (8-10周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -4702,41 +4676,49 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
+          <t>高光谱遥感张邻晶 (10-12周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>系统工程颜伟 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>空间数据库闫金凤 (3-12周) 地理信息科学2019-1-2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
+          <t>地理信息系统原理与应用张蕾 (8-19周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>化学实验室安全与环保马林政 (4-11周) 应用化学2018-1-3</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
+          <t>高光谱遥感张邻晶 (10-17周) 遥感科学与技术2019-1-3</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>遥感原理与应用闫金凤 (9-16周) 地理信息科学2020-1-2</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 采矿工程2020-4-6</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>工程概论李英 (10-12周) 测绘工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>空间数据库闫金凤 (3-12周) 地理信息科学2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
@@ -4756,64 +4738,64 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J14-338室</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
-        </is>
-      </c>
+          <t>J14-336室</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）袁方 (1-12周) 环境工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>采煤概论赵同彬 (7-11周) 工程力学2018-1-3</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>微机原理与应用丁鸿昌 (7-15周) 能源与动力工程2019-1-3</t>
-        </is>
-      </c>
+          <t>系统工程颜伟 (10-17周) 工业工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>交通安全贺敏 (3-10周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>化学实验室安全与环保马林政 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>工程概论任英伟 (10-17周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>概率论与数理统计赵义军 (1-12周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -4833,65 +4815,65 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J14-340室</t>
+          <t>J14-338室</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
+          <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>采矿学常西坤 (6-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>无机与分析化学唐尧基 (4-13周) 生物工程2021-1-2</t>
-        </is>
-      </c>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>实验设计与数据处理吕英海 (10-18周) 生物工程2019-1-2</t>
+          <t>电工电子技术（B）袁方 (1-12周) 环境工程2020-3-4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>微生物学迟向群 (2-7,10-14周) 生物工程2019-2</t>
+          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>化学反应工程李敏 (3-14周) 化学工程与工艺2019-1-2</t>
+          <t>微机原理与应用丁鸿昌 (7-15周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>专业英语高猛 (4-11周) 应用化学2018-1-3</t>
+          <t>交通安全贺敏 (3-10周) 安全工程2019-1-4</t>
         </is>
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>工程制图及CAD技术逯振国 (7-8,10-17周) 交通运输2021-1-2</t>
+        </is>
+      </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
-          <t>化学反应工程李敏 (3-14周) 化学工程与工艺2019-1-2</t>
+          <t>概率论与数理统计赵义军 (1-12周) 测绘工程2020-1-3</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
@@ -4914,55 +4896,67 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J14-342室</t>
+          <t>J14-340室</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
+          <t>有机化学（2-1）陈勇 (10-19周) 应用化学2020-1-3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>采矿学常西坤 (6-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>无机与分析化学唐尧基 (4-13周) 生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
+          <t>实验设计与数据处理吕英海 (10-18周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>微生物学迟向群 (2-7,10-14周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>化学反应工程李敏 (3-14周) 化学工程与工艺2019-1-2</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>专业英语高猛 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>化学反应工程李敏 (3-14周) 化学工程与工艺2019-1-2</t>
+        </is>
+      </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
@@ -4983,62 +4977,54 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J14-402室</t>
+          <t>J14-342室</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>过程装备腐蚀与防护鲍怀谦 (3-11周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>工业锅炉王建伟 (7-15周) 能源与动力工程2019-1-3</t>
+          <t>高分子物理马勇 (7-18周) 高分子材料与工程2019-4</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>过程装备制造与检测胡效东 (3-11周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
@@ -5060,84 +5046,60 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>J14-403室</t>
+          <t>J14-402室</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>环境规划与管理高洪阁 (7-15周) 环境工程2018-3</t>
-        </is>
-      </c>
+          <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
+          <t>过程装备腐蚀与防护鲍怀谦 (3-11周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>能源材料刘瑞 (9-12周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
+          <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>环境规划与管理高洪阁 (7-15周) 环境工程2018-3</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
-        </is>
-      </c>
+          <t>工业锅炉王建伟 (7-15周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
+          <t>过程装备制造与检测胡效东 (3-11周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>化工安全胡相明 (2-10周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -5157,70 +5119,82 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J14-404室</t>
+          <t>J14-403室</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>计算方法李贺 (9-16周) 机械设计制造及其自动化2019-4-5</t>
+          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
+          <t>环境规划与管理高洪阁 (7-15周) 环境工程2018-3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
+          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t>能源材料刘瑞 (9-12周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>塑料成型工艺及模具设计姜慧,吕玉廷 (3-15周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
+          <t>物理化学黄永清 (8-17周) 环境工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>环境规划与管理高洪阁 (7-15周) 环境工程2018-3</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>恢复生态学李琳 (7-15周) 环境工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
+          <t>化工安全胡相明 (2-10周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t>计算方法李贺 (9-16周) 机械设计制造及其自动化2019-4-5</t>
+          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>塑料成型工艺及模具设计姜慧,吕玉廷 (3-15周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>物理化学滕弘霓 (8-17周) 环境工程2020-1-4</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr"/>
@@ -5242,45 +5216,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>J14-405室</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>物流建模方法杨珍花 (9-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-404室</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>计算方法李贺 (9-16周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>塑料成型工艺及模具设计姜慧,吕玉廷 (3-15周) 材料成型及控制工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>计算方法李贺 (9-16周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>塑料成型工艺及模具设计姜慧,吕玉廷 (3-15周) 材料成型及控制工程2018-1-2</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -5303,34 +5289,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J14-406室</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-405室</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
+          <t>物流建模方法杨珍花 (9-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -5338,48 +5312,24 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>专业导论*韩野 (4-11周) 新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>功能材料汪静 (4-11周) 材料化学2018-1-2</t>
-        </is>
-      </c>
+          <t>电子商务物流学杨磊 (10-18周) 电子商务2019-1-2</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
@@ -5400,69 +5350,81 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J14-407室</t>
+          <t>J14-406室</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
+          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
+          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
+          <t>高分子物理*马勇 (7-18周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+          <t>专业导论*韩野 (4-11周) 新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
+          <t>功能材料汪静 (4-11周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
+          <t>电工电子技术（B）马进 (10-18周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
@@ -5485,76 +5447,72 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J14-408室</t>
+          <t>J14-407室</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
-        </is>
-      </c>
+          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>地理信息科学导论艾波 (8-15周) 地理信息科学2021-3</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>空间数据库刘文宝 (3-12周) 地理信息科学2019-3</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>遥感数字图像处理孔冬贤 (3-13周) 地理信息科学2019-3</t>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
+          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-2</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>智慧城市刘新 (4-12周) 地理信息科学2018-1-2</t>
+          <t>高分子物理尹训茜 (7-18周) 高分子材料与工程2019-1</t>
         </is>
       </c>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>空间数据库刘文宝 (3-12周) 地理信息科学2019-3</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>空间分析韩李涛 (7-16周) 地理信息科学2019-3</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+          <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
@@ -5574,82 +5532,74 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J14-409室</t>
+          <t>J14-408室</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
+          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>化工原理(2-2)徐冬梅 (3-16周) 化学工程与工艺2019-1-3</t>
+          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>生物反应工程原理迟向群 (4-11周) 生物工程2018-1</t>
+          <t>地理信息科学导论艾波 (8-15周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>生物工程设备纪蓓 (7-16周) 生物工程2018-1</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>空间数据库刘文宝 (3-12周) 地理信息科学2019-3</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>化工原理(2-2)徐冬梅 (3-16周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>生物反应工程原理迟向群 (4-11周) 生物工程2018-1</t>
+          <t>遥感数字图像处理孔冬贤 (3-13周) 地理信息科学2019-3</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>生物工程设备纪蓓 (7-16周) 生物工程2018-1</t>
-        </is>
-      </c>
+          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t>文献检索王静静 (9-10周) 化学工程与工艺2019-1-3</t>
+          <t>智慧城市刘新 (4-12周) 地理信息科学2018-1-2</t>
         </is>
       </c>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>空间数据库刘文宝 (3-12周) 地理信息科学2019-3</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr">
         <is>
-          <t>化工专业英语赵国明 (6-14周) 化学工程与工艺2018-1-3</t>
+          <t>空间分析韩李涛 (7-16周) 地理信息科学2019-3</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>结构化学赵沛文 (4-15周) 应用化学2019-1-3</t>
+          <t>计算机图形学施剑 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr"/>
@@ -5671,34 +5621,34 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J14-410室</t>
+          <t>J14-409室</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>化工原理(2-2)徐冬梅 (3-16周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>生物反应工程原理迟向群 (4-11周) 生物工程2018-1</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>沉积岩岩石学樊爱萍 (6-13周) 资源勘查工程2020-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>海洋地质学宋召军,许庆林 (9-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>生物工程设备纪蓓 (7-16周) 生物工程2018-1</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5706,55 +5656,47 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>化工原理(2-2)徐冬梅 (3-16周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>生物反应工程原理迟向群 (4-11周) 生物工程2018-1</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>生物工程设备纪蓓 (7-16周) 生物工程2018-1</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
+          <t>文献检索王静静 (9-10周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
-          <t>水利工程概论张升堂 (2-10周) 水文与水资源工程2019-1-2</t>
+          <t>化工专业英语赵国明 (6-14周) 化学工程与工艺2018-1-3</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>计算机程序设计（C语言）张涛 (7-11周) 资源勘查工程2020-1-3</t>
+          <t>结构化学赵沛文 (4-15周) 应用化学2019-1-3</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr"/>
@@ -5776,76 +5718,88 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J14-411室</t>
+          <t>J14-410室</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>工厂供电常龙,李洪宇 (1-3,8-13周) 机械电子工程(留学生)2018</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>制造系统自动化钟佩思 (9-16周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
+          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-1-3</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>几何量公差与检测王宝仁 (3-10周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>沉积岩岩石学樊爱萍 (6-13周) 资源勘查工程2020-3</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (9-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>机器人学导论张明辉 (9-17周) 机械电子工程(留学生)2018</t>
+          <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>制造系统自动化钟佩思 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-1-3</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>几何量公差与检测王宝仁 (3-10周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+          <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
-          <t>传感器与检测技术杜小振 (2-10周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr"/>
+          <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>水利工程概论张升堂 (2-10周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>计算机程序设计（C语言）张涛 (7-11周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -5865,96 +5819,76 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J14-412室</t>
+          <t>J14-411室</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
+          <t>工厂供电常龙,李洪宇 (1-3,8-13周) 机械电子工程(留学生)2018</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>传感器与检测技术杜小振 (2-10周) 机械电子工程2019-4-5</t>
+          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
+          <t>制造系统自动化钟佩思 (9-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>化工过程3D设计焦甜甜 (4-11周) 化学工程与工艺2018-1-3</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>化工工艺学涂宝峰 (5-13周) 化学工程与工艺2018-3</t>
-        </is>
-      </c>
+          <t>几何量公差与检测王宝仁 (3-10周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>化学反应工程赵萍萍 (3-14周) 化学工程与工艺2019-3</t>
+          <t>机器人学导论张明辉 (9-17周) 机械电子工程(留学生)2018</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
+          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>几何量公差与检测韩善灵 (3-10周) 机械电子工程2019-1-3</t>
+          <t>制造系统自动化钟佩思 (9-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
-        </is>
-      </c>
+          <t>几何量公差与检测王宝仁 (3-10周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>传感器与检测技术杜小振 (2-10周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>传感器与检测技术李贺 (2-10周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
@@ -5974,30 +5908,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J14-413室</t>
+          <t>J14-412室</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
+          <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>传感器与检测技术杜小振 (2-10周) 机械电子工程2019-4-5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-4-5</t>
+          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>化工过程3D设计焦甜甜 (4-11周) 化学工程与工艺2018-1-3</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+          <t>化工工艺学涂宝峰 (5-13周) 化学工程与工艺2018-3</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -6005,55 +5947,55 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
+          <t>化学反应工程赵萍萍 (3-14周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-4-5</t>
+          <t>几何量公差与检测韩善灵 (3-10周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>矿山压力与岩层控制文志杰 (6-10周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
+          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
+          <t>传感器与检测技术李贺 (2-10周) 机械电子工程2019-3</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
+          <t>电机拖动与控制姜雪 (10-15周) 机械电子工程2019-3</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -6075,34 +6017,30 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J14-414室</t>
+          <t>J14-413室</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>生物反应工程原理高中政 (4-11周) 生物工程2018-2</t>
+          <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
+          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>计算机（工程）制图王其芳 (6-16周) 地质工程2019-1-3</t>
+          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-4-5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>智慧城市刘新 (4-12周) 地理信息科学2018-1-2</t>
+          <t>机器人技术高魁东,张明辉 (9-12,14-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -6110,41 +6048,57 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>数字地形建模李伟伟 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
+          <t>现代设计方法杨通 (9-16周) 机械设计制造及其自动化2018-4-5</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+          <t>矿山压力与岩层控制文志杰 (6-10周) 安全工程2019-1-4</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
+        </is>
+      </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr">
         <is>
-          <t>海洋地球物理学支鹏遥 (4-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr"/>
+          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
+        </is>
+      </c>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -6164,26 +6118,34 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>J14-416室</t>
+          <t>J14-414室</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>功能材料汪静 (4-11周) 材料化学2018-1-2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>生物反应工程原理高中政 (4-11周) 生物工程2018-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
+          <t>计算机（工程）制图王其芳 (6-16周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
+          <t>智慧城市刘新 (4-12周) 地理信息科学2018-1-2</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -6191,26 +6153,34 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>传感器与检测技术李贺 (2-10周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>数字地形建模李伟伟 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)鲁继平 (4-19周) 地理信息科学2021-1</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>海洋地球物理学支鹏遥 (4-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
@@ -6233,34 +6203,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>J14-418室</t>
+          <t>J14-416室</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>普通化学（B）马林政 (4-11周) 地质工程2021-3</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>功能材料汪静 (4-11周) 材料化学2018-1-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>古生物地史学李守军,张春荣 (9-14周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Java程序设计刘冰 (7-16周) 地理信息科学2019-1-3</t>
+          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -6268,57 +6230,29 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>普通地质学魏友卿 (4-11周) 水文与水资源工程2021-2</t>
-        </is>
-      </c>
+          <t>传感器与检测技术李贺 (2-10周) 机械电子工程2019-3</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>古生物地史学陈雷,张春荣 (7-14周) 水文与水资源工程2020-1</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Java程序设计刘冰 (7-16周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+          <t>资源与环境经济学赵金凯 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>古生物地史学李守军,张春荣 (7-14周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>古生物地史学陈雷,张春荣 (7-14周) 水文与水资源工程2020-1</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
+          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
@@ -6338,38 +6272,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J14-419室</t>
+          <t>J14-418室</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>钻井工程宋维强 (7-11周) 采矿工程2019-1-4</t>
+          <t>普通化学（B）马林政 (4-11周) 地质工程2021-3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>军事理论冯阳,李雷 (4-19周) 测绘工程2021-3-5</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>古生物地史学李守军,张春荣 (9-14周) 地质工程2020-1</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>Java程序设计刘冰 (7-16周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6377,55 +6307,51 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Matlab语言程序设计王德营 (9-16周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>地球物理测井杨思通,张涛 (9-19周) 勘查技术与工程2019-2</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>普通地质学魏友卿 (4-11周) 水文与水资源工程2021-2</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
+          <t>古生物地史学陈雷,张春荣 (7-14周) 水文与水资源工程2020-1</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
+          <t>Java程序设计刘冰 (7-16周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>保险法慕晓琛,赵丽莉 (1-16周) 法学（海洋法方向）2019班,法学2019-1-3</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
+          <t>古生物地史学李守军,张春荣 (7-14周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>古生物地史学陈雷,张春荣 (7-14周) 水文与水资源工程2020-1</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6447,26 +6373,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>J14-420室</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>J14-419室</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>钻井工程宋维强 (7-11周) 采矿工程2019-1-4</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>数据结构（B）鲁法明 (9-14周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>军事理论冯阳,李雷 (4-19周) 测绘工程2021-3-5</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>化学实验室安全与环保马林政 (4-11周) 应用化学2018-1-3</t>
+          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>测量学田茂义 (9-14周) 水文与水资源工程2021-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6474,41 +6412,57 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+          <t>Matlab语言程序设计王德营 (9-16周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>军事理论易凡,张昔玉 (4-19周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>工程概论孙凌志 (10-17周) 地质工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>保险法慕晓琛,赵丽莉 (1-16周) 法学（海洋法方向）2019班,法学2019-1-3</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>高等数学（A）（2-1）李玉青 (4-19周) 机械设计制造及其自动化2021-1-4</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr"/>
+          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
@@ -6528,92 +6482,68 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>J14-421室</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
+          <t>J14-420室</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>海洋遥感战丽丽 (10-11周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
-        </is>
-      </c>
+          <t>数据结构（B）鲁法明 (9-14周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>化学实验室安全与环保马林政 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
+          <t>测量学田茂义 (9-14周) 水文与水资源工程2021-1-2</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>地下管线探测与管网GIS牟乃夏 (8-16周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>通风安全学孙路路 (6-10周) 安全工程2019-1</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>海洋遥感战丽丽 (4-11周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>数据结构（B）鲁法明 (7-14周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>军事理论易凡,张昔玉 (4-19周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr">
         <is>
-          <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>遥感原理与方法战丽丽 (5-14周) 遥感科学与技术2021-1-3</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>摄影测量学王志勇 (10-19周) 遥感科学与技术2019-1-3</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -6633,82 +6563,94 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>J14-423室</t>
+          <t>J14-421室</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>水文地球化学任加国 (9-19周) 水文与水资源工程2019-1-2</t>
+          <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>海洋遥感战丽丽 (10-11周) 遥感科学与技术2019-1-3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>环境水文地质学任加国 (6-13周) 水文与水资源工程2018-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
+          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>地下管线探测与管网GIS牟乃夏 (8-16周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>计算机绘图谢道雷 (4-13周) 水文与水资源工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>岩土工程勘察孙涛 (5-14周) 地质工程2018-3</t>
-        </is>
-      </c>
+          <t>通风安全学孙路路 (6-10周) 安全工程2019-1</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>工程项目管理孙涛 (5-13周) 地质工程2018-1-3 工程项目管理孙涛 (5-13周) 地质工程2018-1-3</t>
+          <t>海洋遥感战丽丽 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (3-13周) 地质工程2019-1-2</t>
+          <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>环境水文地质学任加国 (6-13周) 水文与水资源工程2018-1-2</t>
+          <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
+          <t>遥感水文郭斌 (10-17周) 遥感科学与技术2018-1-3</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>数据结构（B）鲁法明 (7-14周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>工程测量林淼 (9-14周) 地质工程2021-1-3</t>
+          <t>数字信号处理罗宇 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>构造地质学刘海燕 (4-13周) 资源勘查工程2019-2</t>
+          <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>工程项目管理孙涛 (5-13周) 地质工程2018-1-3 工程项目管理孙涛 (5-13周) 地质工程2018-1-3</t>
+          <t>遥感原理与方法战丽丽 (5-14周) 遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr"/>
@@ -6730,68 +6672,84 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J14-424室</t>
+          <t>J14-423室</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>军事理论王鹏 (4-19周) 地理信息科学2021-1-2</t>
-        </is>
-      </c>
+          <t>水文地球化学任加国 (9-19周) 水文与水资源工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>环境水文地质学任加国 (6-13周) 水文与水资源工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>地理信息系统原理与应用赵相伟 (8-19周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
+          <t>计算机绘图谢道雷 (4-13周) 水文与水资源工程2019-1-2</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
+          <t>岩土工程勘察孙涛 (5-14周) 地质工程2018-3</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>军事理论孙志勇,吴昊 (4-19周) 遥感科学与技术2021-3班,地理信息科学2021-3</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+          <t>工程项目管理孙涛 (5-13周) 地质工程2018-1-3 工程项目管理孙涛 (5-13周) 地质工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>岩体力学张伟杰 (3-13周) 地质工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>环境水文地质学任加国 (6-13周) 水文与水资源工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>测绘专业英语陈允芳 (10-18周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>工程测量林淼 (9-14周) 地质工程2021-1-3</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>大地测量学基础韩晓冬 (9-14周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr"/>
+          <t>构造地质学刘海燕 (4-13周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>工程项目管理孙涛 (5-13周) 地质工程2018-1-3 工程项目管理孙涛 (5-13周) 地质工程2018-1-3</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
@@ -6811,76 +6769,68 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>J14-426室</t>
+          <t>J14-424室</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
-        </is>
-      </c>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>普通地质学宋召军,许庆林 (4-15周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>军事理论王鹏 (4-19周) 地理信息科学2021-1-2</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (4-12周) 遥感科学与技术2019-1</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
+          <t>大学英语（A)(2-1)张玉亮 (4-19周) 测绘工程2021-5</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>结构化学赵沛文 (4-15周) 应用化学2019-1-3</t>
+          <t>国际投资学孙玉红 (10-18周) 投资学2018-1-2</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>地理国情监测黄珏 (4-11周) 遥感科学与技术2018-1-3</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr"/>
+          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>军事理论孙志勇,吴昊 (4-19周) 遥感科学与技术2021-3班,地理信息科学2021-3</t>
+        </is>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>地下管线探测与管网GIS牟乃夏 (8-16周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>普通地质学魏友卿 (4-11周) 水文与水资源工程2021-2</t>
+          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Matlab语言程序设计王德营 (9-16周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (4-12周) 遥感科学与技术2019-1</t>
-        </is>
-      </c>
+          <t>大地测量学基础韩晓冬 (9-14周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
@@ -6900,62 +6850,74 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>J14-428室</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>J14-426室</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>等离子技术及应用王淑峰 (10-17周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>绿色开采技术汪锋 (6-10周) 采矿工程2018-4-6</t>
+          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>弹性力学基础汪锋 (9-16周) 采矿工程（智能开采方向）2019-2</t>
+          <t>普通地质学宋召军,许庆林 (4-15周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>流态化采矿技术陈水泉 (4-12周) 采矿工程2018-1-6</t>
-        </is>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>化工工艺学韩姝娜 (5-13周) 化学工程与工艺2018-1-2</t>
+          <t>大地测量学基础郭英 (4-12周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)刘炳淑 (4-19周) 测绘工程2021-2</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>结构化学赵沛文 (4-15周) 应用化学2019-1-3</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>地理国情监测黄珏 (4-11周) 遥感科学与技术2018-1-3</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>地下管线探测与管网GIS牟乃夏 (8-16周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
+          <t>普通地质学魏友卿 (4-11周) 水文与水资源工程2021-2</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>采矿学常西坤 (6-11周) 采矿工程2019-1-2</t>
+          <t>Matlab语言程序设计王德营 (9-16周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
+          <t>大地测量学基础郭英 (4-12周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr"/>
@@ -6977,82 +6939,70 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J14-430室</t>
+          <t>J14-428室</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>专业英语韩文学,孟凡雪 (10-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>绿色开采技术汪锋 (6-10周) 采矿工程2018-4-6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>弹性力学基础汪锋 (9-16周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
+          <t>流态化采矿技术陈水泉 (4-12周) 采矿工程2018-1-6</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>遥感原理与方法战丽丽 (5-14周) 遥感科学与技术2021-1-3</t>
+          <t>化工工艺学韩姝娜 (5-13周) 化学工程与工艺2018-1-2</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>数字摄影测量学解斐斐,刘健辰 (8-11周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>空间分析韩李涛 (7-16周) 地理信息科学2019-3</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
-        </is>
-      </c>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>智慧城市刘文宝 (4-12周) 地理信息科学2018-3</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr">
         <is>
-          <t>数字摄影测量学解斐斐,刘健辰 (8-10周) 测绘工程2019-1-3</t>
+          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>专业英语韩宗盈 (4-11周) 应用化学2018-1-3</t>
+          <t>采矿学常西坤 (6-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>大地测量学基础张方照 (4-12周) 遥感科学与技术2019-3</t>
+          <t>结构力学杜烨 (5-16周) 工程力学2019-1-2</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>智慧城市刘文宝 (4-12周) 地理信息科学2018-3</t>
-        </is>
-      </c>
+      <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
@@ -7070,38 +7020,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>J14-432室</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>煤地质学刘海燕,吕大炜 (10-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
+          <t>J14-430室</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>专业英语韩文学,孟凡雪 (10-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>海洋地球物理学支鹏遥 (4-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>海底构造学韩文学 (4-12周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>构造地质学刘海燕 (4-13周) 资源勘查工程2019-2</t>
+          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>煤地质学刘海燕,吕大炜 (10-17周) 资源勘查工程2019-3</t>
+          <t>遥感原理与方法战丽丽 (5-14周) 遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -7109,33 +7047,29 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>数字摄影测量学解斐斐,刘健辰 (8-11周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>空间分析韩李涛 (7-16周) 地理信息科学2019-3</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>专业英语韩文学,孟凡雪 (4-13周) 资源勘查工程2019-3</t>
+          <t>地理信息系统原理与应用刘洪强 (8-19周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>海底构造学韩文学 (4-12周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>沉积岩岩石学樊爱萍 (8-13周) 资源勘查工程2020-3</t>
-        </is>
-      </c>
+          <t>智慧城市刘文宝 (4-12周) 地理信息科学2018-3</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>煤地质学郑雪 (10-17周) 资源勘查工程2019-1</t>
+          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7143,19 +7077,23 @@
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr">
         <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>专业英语张军建,郑雪 (4-11周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
+          <t>数字摄影测量学解斐斐,刘健辰 (8-10周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>专业英语韩宗盈 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>大地测量学基础张方照 (4-12周) 遥感科学与技术2019-3</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>煤地质学郑雪 (10-13周) 资源勘查工程2019-1</t>
+          <t>智慧城市刘文宝 (4-12周) 地理信息科学2018-3</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr"/>
@@ -7175,96 +7113,92 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J14-434室</t>
+          <t>J14-432室</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
+          <t>煤地质学刘海燕,吕大炜 (10-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>岩土工程勘察孙涛 (5-14周) 地质工程2018-3</t>
+          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>海洋地球物理学支鹏遥 (4-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>水文地质与工程地质学高宗军,张彧齐 (9-14周) 勘查技术与工程2019-1-2</t>
+          <t>海底构造学韩文学 (4-12周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>构造地质学刘海燕 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>煤地质学刘海燕,吕大炜 (10-17周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>沉积岩岩石学韩超 (6-13周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
+          <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>水灾害防治郭建斌 (6-13周) 水文与水资源工程2018-1</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
+          <t>专业英语韩文学,孟凡雪 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>海底构造学韩文学 (4-12周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>沉积岩岩石学樊爱萍 (8-13周) 资源勘查工程2020-3</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
+          <t>煤地质学郑雪 (10-17周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>沉积岩岩石学韩超 (6-13周) 资源勘查工程2020-2</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>水灾害防治郭建斌 (6-13周) 水文与水资源工程2018-1</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr"/>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>专业英语张军建,郑雪 (4-11周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>古生物地史学张春荣,周长付 (7-14周) 水文与水资源工程2020-2</t>
+          <t>煤地质学郑雪 (10-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr"/>
@@ -7284,94 +7218,94 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>J14-436室</t>
+          <t>J14-434室</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 生物工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
-        </is>
-      </c>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>岩土工程勘察孙涛 (5-14周) 地质工程2018-3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (9-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>生物工程设备孟龙 (7-16周) 生物工程2018-2</t>
+          <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
+          <t>沉积岩岩石学韩超 (6-13周) 资源勘查工程2020-2</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>结构化学黄永清 (4-15周) 应用化学2019-1-3</t>
+          <t>水灾害防治郭建斌 (6-13周) 水文与水资源工程2018-1</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
+          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>专业英语韩宗盈 (4-11周) 应用化学2018-1-3</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t>微生物学迟向群 (2-7,10-14周) 生物工程2019-2</t>
+          <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>化工工艺学韩姝娜 (5-13周) 化学工程与工艺2018-1-2</t>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
         </is>
       </c>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr">
         <is>
-          <t>实验设计与数据处理吕英海 (10周) 生物工程2019-1-2</t>
+          <t>沉积岩岩石学韩超 (6-13周) 资源勘查工程2020-2</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
+          <t>工程地质学基础徐东晶 (8-16周) 地质工程2019-2</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr"/>
+          <t>水灾害防治郭建斌 (6-13周) 水文与水资源工程2018-1</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>地球物理测井杨思通 (9-19周) 勘查技术与工程2019-1</t>
+        </is>
+      </c>
       <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>古生物地史学张春荣,周长付 (7-14周) 水文与水资源工程2020-2</t>
+        </is>
+      </c>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
@@ -7389,89 +7323,89 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>J14-438室</t>
+          <t>J14-436室</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>空间分析季民 (7-16周) 地理信息科学2019-1-2</t>
-        </is>
-      </c>
+          <t>电工电子技术（B）王亚群 (1-12周) 生物工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>C++语言程序设计崔健慧 (4-19周) 测绘工程2021-2</t>
+          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>工程概论李英 (10-12周) 测绘工程2020-4-5</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>遥感原理与应用孔冬贤 (9-16周) 地理信息科学2020-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>C++语言程序设计李泽宇 (4-19周) 测绘工程2021-3</t>
+          <t>生物工程设备孟龙 (7-16周) 生物工程2018-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
+          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
+          <t>结构化学黄永清 (4-15周) 应用化学2019-1-3</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>空间分析季民 (7-16周) 地理信息科学2019-1-2</t>
+          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>专业英语韩宗盈 (4-11周) 应用化学2018-1-3</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>遥感科学与技术专业导论战丽丽 (4-11周) 遥感科学与技术2021-1-3</t>
+          <t>微生物学迟向群 (2-7,10-14周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>工程概论李英 (10-17周) 测绘工程2020-4-5</t>
+          <t>化工工艺学韩姝娜 (5-13周) 化学工程与工艺2018-1-2</t>
         </is>
       </c>
       <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>实验设计与数据处理吕英海 (10周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
+          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>遥感原理与应用孔冬贤 (9-16周) 地理信息科学2020-3</t>
+          <t>无机化学路广 (4-19周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -7494,78 +7428,94 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>J14-440室</t>
+          <t>J14-438室</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
+          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
+          <t>空间分析季民 (7-16周) 地理信息科学2019-1-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
+          <t>C++语言程序设计崔健慧 (4-19周) 测绘工程2021-2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>工程概论李英 (10-12周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>遥感原理与应用孔冬贤 (9-16周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>C++语言程序设计李泽宇 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>海洋调查付庆军 (9-17周) 测绘工程（海洋测绘方向）2018</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
+          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
+          <t>空间分析季民 (7-16周) 地理信息科学2019-1-2</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>惯性导航基础石波 (9-17周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr"/>
+          <t>遥感科学与技术专业导论战丽丽 (4-11周) 遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>工程概论李英 (10-17周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>遥感原理与应用孔冬贤 (9-16周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
-        </is>
-      </c>
+      <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
@@ -7583,44 +7533,56 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J14-442室</t>
+          <t>J14-440室</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
+          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
+          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
+          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -7628,17 +7590,21 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr">
         <is>
-          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>专业导论*宋亮 (4-11周) 材料化学2021-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
+        </is>
+      </c>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
@@ -7656,72 +7622,60 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-504室</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+          <t>J14-442室</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
+          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
-          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+          <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr">
         <is>
-          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
+          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
         </is>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+          <t>专业导论*宋亮 (4-11周) 材料化学2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -7741,34 +7695,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-508室</t>
+          <t>J14-504室</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
-        </is>
-      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+          <t>人机工程学王晓娜 (10-17周) 工业设计2019-1-2</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -7776,34 +7718,50 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
+          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
+          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>产品设计Ⅱ（产品开发设计）王晓娜 (10-13周) 工业设计2019-1-2</t>
+        </is>
+      </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
-        </is>
-      </c>
+          <t>交互设计张宁 (6-11周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
@@ -7822,16 +7780,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
+          <t>J14-508室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）薄其芳 (7-12周) 产品设计2018-1-2</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -7840,31 +7818,39 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>产品设计Ⅲ（系统设计）杨梅 (9-13周) 工业设计2018-1-2</t>
+        </is>
+      </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -8466,7 +8452,7 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="R88" t="inlineStr"/>
@@ -8538,7 +8524,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8550,7 +8536,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -8571,12 +8557,12 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8591,7 +8577,11 @@
           <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr">
         <is>
@@ -8615,6 +8605,55 @@
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>J14-322室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>机械原理（A）魏军英 (10双周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/10.xlsx
+++ b/excel/10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,12 +889,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>流体力学辛林 (9-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -1164,11 +1164,7 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t>材料科学基础 (A)宋强 (10-16周) 金属材料工程2020-4</t>
@@ -1192,22 +1188,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1333,7 +1329,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1387,19 +1383,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1540,7 +1536,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1733,7 +1729,11 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>金融专业英语闻德美 (10双周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>数值模拟方法与应用张培森 (7-14周) 采矿工程2019-1</t>
@@ -1959,16 +1959,8 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>地理建模原理与方法刘羽 (4-12周) 地理信息科学2019-1</t>
@@ -2121,11 +2113,7 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2151,11 +2139,7 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17双周) 机械设计制造及其自动化2020-2-3</t>
@@ -2176,11 +2160,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2193,11 +2173,7 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2230,18 +2206,10 @@
           <t>机械振动与噪声控制牟鸣飞 (9-16周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2276,16 +2244,8 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2335,7 +2295,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2370,7 +2330,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2378,7 +2338,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2448,7 +2408,11 @@
           <t>数据结构与算法韩李涛 (1-10周) 地理信息科学2021-1-3</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>遥感图像解译黄珏 (9-15周) 遥感科学与技术2020-1-3</t>
@@ -2578,7 +2542,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2697,11 +2661,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -3147,7 +3107,7 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3388,16 +3348,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -3418,11 +3370,7 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3448,11 +3396,7 @@
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3484,7 +3428,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3544,11 +3488,7 @@
           <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -3574,17 +3514,9 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
@@ -3593,26 +3525,18 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -4139,7 +4063,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4328,7 +4252,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4399,20 +4323,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (2,4,6,10,12,14双周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -4467,7 +4383,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4494,7 +4410,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4525,7 +4441,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4710,7 +4626,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4755,7 +4671,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5172,7 +5088,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5277,7 +5193,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5308,7 +5224,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5378,7 +5294,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5416,12 +5332,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5900,7 +5816,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
@@ -6395,7 +6311,11 @@
           <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (9-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr">
         <is>
           <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
@@ -6673,7 +6593,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -6784,7 +6704,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -6814,7 +6734,7 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -6907,7 +6827,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -7107,7 +7027,7 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7128,7 +7048,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -7154,7 +7074,7 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -7289,7 +7209,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7574,7 +7494,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -7827,49 +7747,89 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>金属材料学姚树玉 (10-16周) 金属材料工程2019-4</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -7888,89 +7848,57 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -7989,56 +7917,80 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8058,34 +8010,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-531室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+          <t>J14-533室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
+          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -8093,45 +8041,29 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -8151,56 +8083,48 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-533室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr"/>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -8224,18 +8148,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-535室</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -8245,27 +8173,27 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
@@ -8289,28 +8217,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -8319,21 +8243,9 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>产品形象设计杜婉君 (7-10周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
@@ -8358,53 +8270,53 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
@@ -8427,7 +8339,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -8435,16 +8347,8 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -8453,11 +8357,27 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
@@ -8480,56 +8400,80 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr"/>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr"/>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -8549,7 +8493,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -8557,40 +8501,60 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
@@ -8610,80 +8574,64 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -8703,68 +8651,52 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -8784,63 +8716,67 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-521室</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
@@ -8861,43 +8797,71 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+      <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
@@ -8918,67 +8882,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>矿山压力与岩层控制吴士良 (6-10周) 采矿工程2019-3</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
+          <t>J14-515室</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -8993,148 +8933,6 @@
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>J14-519室</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="inlineStr"/>
-      <c r="AK101" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
